--- a/HW3_Excel1/HW3_114306062.xlsx
+++ b/HW3_Excel1/HW3_114306062.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allison\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allison\Documents\GitHub\1141_IntroToCS_114306062\HW3_Excel1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6613766-AB83-48D9-9451-53CC47C7CDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0026B86-7F22-4689-AC2A-5F2DF3DA69DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
+    <workbookView xWindow="2280" yWindow="460" windowWidth="15640" windowHeight="11540" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -367,46 +367,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -849,6 +809,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-363D-4EA8-852D-449C04B2CB71}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -876,6 +841,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-363D-4EA8-852D-449C04B2CB71}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -909,10 +879,10 @@
             </c:txPr>
             <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -2555,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -2629,14 +2599,14 @@
         <v>95</v>
       </c>
       <c r="H2" s="1">
-        <f>AVERAGE(C2:G2)</f>
+        <f t="shared" ref="H2:H15" si="0">AVERAGE(C2:G2)</f>
         <v>94.4</v>
       </c>
       <c r="I2" s="1">
         <v>89</v>
       </c>
       <c r="J2">
-        <f>SUM(C2:G2)*10% + I2*50%</f>
+        <f t="shared" ref="J2:J15" si="1">SUM(C2:G2)*10% + I2*50%</f>
         <v>91.7</v>
       </c>
       <c r="K2" t="str" cm="1">
@@ -2644,7 +2614,7 @@
         <v>A</v>
       </c>
       <c r="L2" t="str">
-        <f>IF(I2&gt;=60,"Pass","Fail")</f>
+        <f t="shared" ref="L2:L15" si="2">IF(I2&gt;=60,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
     </row>
@@ -2671,14 +2641,14 @@
         <v>85</v>
       </c>
       <c r="H3" s="1">
-        <f>AVERAGE(C3:G3)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="I3" s="1">
         <v>94</v>
       </c>
       <c r="J3">
-        <f>SUM(C3:G3)*10% + I3*50%</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K3" t="str" cm="1">
@@ -2686,7 +2656,7 @@
         <v>A</v>
       </c>
       <c r="L3" t="str">
-        <f>IF(I3&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2713,14 +2683,14 @@
         <v>85</v>
       </c>
       <c r="H4" s="1">
-        <f>AVERAGE(C4:G4)</f>
+        <f t="shared" si="0"/>
         <v>82.4</v>
       </c>
       <c r="I4" s="1">
         <v>80</v>
       </c>
       <c r="J4">
-        <f>SUM(C4:G4)*10% + I4*50%</f>
+        <f t="shared" si="1"/>
         <v>81.2</v>
       </c>
       <c r="K4" t="str" cm="1">
@@ -2728,7 +2698,7 @@
         <v>B</v>
       </c>
       <c r="L4" t="str">
-        <f>IF(I4&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2755,14 +2725,14 @@
         <v>95</v>
       </c>
       <c r="H5" s="1">
-        <f>AVERAGE(C5:G5)</f>
+        <f t="shared" si="0"/>
         <v>81.599999999999994</v>
       </c>
       <c r="I5" s="1">
         <v>80</v>
       </c>
       <c r="J5">
-        <f>SUM(C5:G5)*10% + I5*50%</f>
+        <f t="shared" si="1"/>
         <v>80.800000000000011</v>
       </c>
       <c r="K5" t="str" cm="1">
@@ -2770,7 +2740,7 @@
         <v>B</v>
       </c>
       <c r="L5" t="str">
-        <f>IF(I5&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2797,14 +2767,14 @@
         <v>73</v>
       </c>
       <c r="H6" s="1">
-        <f>AVERAGE(C6:G6)</f>
+        <f t="shared" si="0"/>
         <v>81.400000000000006</v>
       </c>
       <c r="I6" s="1">
         <v>88</v>
       </c>
       <c r="J6">
-        <f>SUM(C6:G6)*10% + I6*50%</f>
+        <f t="shared" si="1"/>
         <v>84.7</v>
       </c>
       <c r="K6" t="str" cm="1">
@@ -2812,7 +2782,7 @@
         <v>B</v>
       </c>
       <c r="L6" t="str">
-        <f>IF(I6&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2839,14 +2809,14 @@
         <v>80</v>
       </c>
       <c r="H7" s="1">
-        <f>AVERAGE(C7:G7)</f>
+        <f t="shared" si="0"/>
         <v>80.599999999999994</v>
       </c>
       <c r="I7" s="1">
         <v>81</v>
       </c>
       <c r="J7">
-        <f>SUM(C7:G7)*10% + I7*50%</f>
+        <f t="shared" si="1"/>
         <v>80.800000000000011</v>
       </c>
       <c r="K7" t="str" cm="1">
@@ -2854,7 +2824,7 @@
         <v>B</v>
       </c>
       <c r="L7" t="str">
-        <f>IF(I7&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2881,14 +2851,14 @@
         <v>89</v>
       </c>
       <c r="H8" s="1">
-        <f>AVERAGE(C8:G8)</f>
+        <f t="shared" si="0"/>
         <v>78.8</v>
       </c>
       <c r="I8" s="1">
         <v>77</v>
       </c>
       <c r="J8">
-        <f>SUM(C8:G8)*10% + I8*50%</f>
+        <f t="shared" si="1"/>
         <v>77.900000000000006</v>
       </c>
       <c r="K8" t="str" cm="1">
@@ -2896,7 +2866,7 @@
         <v>C</v>
       </c>
       <c r="L8" t="str">
-        <f>IF(I8&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2923,14 +2893,14 @@
         <v>47</v>
       </c>
       <c r="H9" s="1">
-        <f>AVERAGE(C9:G9)</f>
+        <f t="shared" si="0"/>
         <v>75.400000000000006</v>
       </c>
       <c r="I9" s="1">
         <v>73</v>
       </c>
       <c r="J9">
-        <f>SUM(C9:G9)*10% + I9*50%</f>
+        <f t="shared" si="1"/>
         <v>74.2</v>
       </c>
       <c r="K9" t="str" cm="1">
@@ -2938,7 +2908,7 @@
         <v>C</v>
       </c>
       <c r="L9" t="str">
-        <f>IF(I9&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -2965,14 +2935,14 @@
         <v>97</v>
       </c>
       <c r="H10" s="1">
-        <f>AVERAGE(C10:G10)</f>
+        <f t="shared" si="0"/>
         <v>73.400000000000006</v>
       </c>
       <c r="I10" s="1">
         <v>77</v>
       </c>
       <c r="J10">
-        <f>SUM(C10:G10)*10% + I10*50%</f>
+        <f t="shared" si="1"/>
         <v>75.2</v>
       </c>
       <c r="K10" t="str" cm="1">
@@ -2980,7 +2950,7 @@
         <v>C</v>
       </c>
       <c r="L10" t="str">
-        <f>IF(I10&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3007,14 +2977,14 @@
         <v>67</v>
       </c>
       <c r="H11" s="1">
-        <f>AVERAGE(C11:G11)</f>
+        <f t="shared" si="0"/>
         <v>73.2</v>
       </c>
       <c r="I11" s="1">
         <v>82</v>
       </c>
       <c r="J11">
-        <f>SUM(C11:G11)*10% + I11*50%</f>
+        <f t="shared" si="1"/>
         <v>77.599999999999994</v>
       </c>
       <c r="K11" t="str" cm="1">
@@ -3022,7 +2992,7 @@
         <v>C</v>
       </c>
       <c r="L11" t="str">
-        <f>IF(I11&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3049,14 +3019,14 @@
         <v>82</v>
       </c>
       <c r="H12" s="1">
-        <f>AVERAGE(C12:G12)</f>
+        <f t="shared" si="0"/>
         <v>73.2</v>
       </c>
       <c r="I12" s="1">
         <v>88</v>
       </c>
       <c r="J12">
-        <f>SUM(C12:G12)*10% + I12*50%</f>
+        <f t="shared" si="1"/>
         <v>80.599999999999994</v>
       </c>
       <c r="K12" t="str" cm="1">
@@ -3064,7 +3034,7 @@
         <v>B</v>
       </c>
       <c r="L12" t="str">
-        <f>IF(I12&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3091,14 +3061,14 @@
         <v>92</v>
       </c>
       <c r="H13" s="1">
-        <f>AVERAGE(C13:G13)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="I13" s="1">
         <v>52</v>
       </c>
       <c r="J13">
-        <f>SUM(C13:G13)*10% + I13*50%</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="K13" t="str" cm="1">
@@ -3106,7 +3076,7 @@
         <v>F</v>
       </c>
       <c r="L13" t="str">
-        <f>IF(I13&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
@@ -3133,14 +3103,14 @@
         <v>79</v>
       </c>
       <c r="H14" s="1">
-        <f>AVERAGE(C14:G14)</f>
+        <f t="shared" si="0"/>
         <v>64.8</v>
       </c>
       <c r="I14" s="1">
         <v>69</v>
       </c>
       <c r="J14">
-        <f>SUM(C14:G14)*10% + I14*50%</f>
+        <f t="shared" si="1"/>
         <v>66.900000000000006</v>
       </c>
       <c r="K14" t="str" cm="1">
@@ -3148,7 +3118,7 @@
         <v>D</v>
       </c>
       <c r="L14" t="str">
-        <f>IF(I14&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Pass</v>
       </c>
     </row>
@@ -3175,14 +3145,14 @@
         <v>34</v>
       </c>
       <c r="H15" s="1">
-        <f>AVERAGE(C15:G15)</f>
+        <f t="shared" si="0"/>
         <v>57.2</v>
       </c>
       <c r="I15" s="1">
         <v>54</v>
       </c>
       <c r="J15">
-        <f>SUM(C15:G15)*10% + I15*50%</f>
+        <f t="shared" si="1"/>
         <v>55.6</v>
       </c>
       <c r="K15" t="str" cm="1">
@@ -3190,7 +3160,7 @@
         <v>F</v>
       </c>
       <c r="L15" t="str">
-        <f>IF(I15&gt;=60,"Pass","Fail")</f>
+        <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
     </row>
@@ -3255,17 +3225,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="L2:L15 L17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L15 L17">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="L3:L15">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Fail"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L18">

--- a/HW3_Excel1/HW3_114306062.xlsx
+++ b/HW3_Excel1/HW3_114306062.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allison\Documents\GitHub\1141_IntroToCS_114306062\HW3_Excel1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0026B86-7F22-4689-AC2A-5F2DF3DA69DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690557CF-F783-44B1-95EF-B151F45C5F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="460" windowWidth="15640" windowHeight="11540" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -2525,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3191,8 +3191,8 @@
         <v>92</v>
       </c>
       <c r="H17" s="1">
-        <f>COUNTIF(H2:H15,"&gt;=80")</f>
-        <v>6</v>
+        <f>COUNTIF(H2:H15,"&lt;=80")</f>
+        <v>8</v>
       </c>
       <c r="J17">
         <f>AVERAGE(J2:J15)</f>
